--- a/temp_doc/DATA KELAS.xlsx
+++ b/temp_doc/DATA KELAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/webth/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA30CAB-A206-D242-A0EF-94D1BA08E3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264FCB34-0A0E-D24E-9C3E-D1C3FA1DA409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,12 +85,6 @@
     <t>XI PM 1</t>
   </si>
   <si>
-    <t>XII PM 1</t>
-  </si>
-  <si>
-    <t>XII PM 2</t>
-  </si>
-  <si>
     <t>MPLB</t>
   </si>
   <si>
@@ -140,6 +134,12 @@
   </si>
   <si>
     <t>XII TJKT 3</t>
+  </si>
+  <si>
+    <t>XII PM</t>
+  </si>
+  <si>
+    <t>XI DKV</t>
   </si>
 </sst>
 </file>
@@ -188,10 +188,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,7 +510,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,8 +533,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>3035146</v>
+      <c r="A2" s="3">
+        <v>4041001</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -542,12 +543,12 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3037075</v>
+      <c r="A3" s="3">
+        <v>4041002</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -556,12 +557,12 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3031535</v>
+      <c r="A4" s="3">
+        <v>4041003</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -570,82 +571,82 @@
         <v>14</v>
       </c>
       <c r="D4">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3033468</v>
+      <c r="A5" s="3">
+        <v>4041004</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4041005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3037072</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
       <c r="D6">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3032783</v>
+      <c r="A7" s="3">
+        <v>4041006</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>4041007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D8">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>4041008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="D7">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>3035345</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>3035241</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
       <c r="D9">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>3035294</v>
+      <c r="A10" s="3">
+        <v>4041009</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -654,12 +655,12 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>3035455</v>
+      <c r="A11" s="3">
+        <v>4041010</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -668,12 +669,12 @@
         <v>7</v>
       </c>
       <c r="D11">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>3031564</v>
+      <c r="A12" s="3">
+        <v>4041011</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -682,12 +683,12 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>3033800</v>
+      <c r="A13" s="3">
+        <v>4041012</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -696,203 +697,203 @@
         <v>15</v>
       </c>
       <c r="D13">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>3031131</v>
+      <c r="A14" s="3">
+        <v>4041013</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>3034929</v>
+      <c r="A15" s="3">
+        <v>4041014</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>3039219</v>
+      <c r="A16" s="3">
+        <v>4041015</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>4041016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>4041017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D16">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>3039924</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>3032709</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D18">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>3031901</v>
+      <c r="A19" s="3">
+        <v>4041018</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3035387</v>
+      <c r="A20" s="3">
+        <v>4041019</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>4041020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D20">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>3037487</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D21">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>3031557</v>
+      <c r="A22" s="3">
+        <v>4041021</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>3035861</v>
+      <c r="A23" s="3">
+        <v>4041022</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>4041023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>4041024</v>
+      </c>
+      <c r="B25" t="s">
         <v>23</v>
       </c>
-      <c r="D23">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>3039274</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3031974</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
       <c r="C25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>4041025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>4041026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D25">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>3031195</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>3036135</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D27">
-        <v>303</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/temp_doc/DATA KELAS.xlsx
+++ b/temp_doc/DATA KELAS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/webth/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264FCB34-0A0E-D24E-9C3E-D1C3FA1DA409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7053C729-45FF-4C48-8C03-6B974B9261A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
@@ -188,11 +188,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +509,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,7 +532,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2">
         <v>4041001</v>
       </c>
       <c r="B2" t="s">
@@ -547,7 +546,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3">
         <v>4041002</v>
       </c>
       <c r="B3" t="s">
@@ -561,7 +560,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4">
         <v>4041003</v>
       </c>
       <c r="B4" t="s">
@@ -575,7 +574,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5">
         <v>4041004</v>
       </c>
       <c r="B5" t="s">
@@ -589,7 +588,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6">
         <v>4041005</v>
       </c>
       <c r="B6" t="s">
@@ -603,7 +602,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7">
         <v>4041006</v>
       </c>
       <c r="B7" t="s">
@@ -617,7 +616,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8">
         <v>4041007</v>
       </c>
       <c r="B8" t="s">
@@ -631,7 +630,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9">
         <v>4041008</v>
       </c>
       <c r="B9" t="s">
@@ -645,7 +644,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10">
         <v>4041009</v>
       </c>
       <c r="B10" t="s">
@@ -659,7 +658,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11">
         <v>4041010</v>
       </c>
       <c r="B11" t="s">
@@ -673,7 +672,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12">
         <v>4041011</v>
       </c>
       <c r="B12" t="s">
@@ -687,7 +686,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13">
         <v>4041012</v>
       </c>
       <c r="B13" t="s">
@@ -701,7 +700,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14">
         <v>4041013</v>
       </c>
       <c r="B14" t="s">
@@ -715,7 +714,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15">
         <v>4041014</v>
       </c>
       <c r="B15" t="s">
@@ -729,7 +728,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16">
         <v>4041015</v>
       </c>
       <c r="B16" t="s">
@@ -743,7 +742,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17">
         <v>4041016</v>
       </c>
       <c r="B17" t="s">
@@ -757,7 +756,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18">
         <v>4041017</v>
       </c>
       <c r="B18" t="s">
@@ -771,7 +770,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19">
         <v>4041018</v>
       </c>
       <c r="B19" t="s">
@@ -785,7 +784,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20">
         <v>4041019</v>
       </c>
       <c r="B20" t="s">
@@ -799,7 +798,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21">
         <v>4041020</v>
       </c>
       <c r="B21" t="s">
@@ -813,7 +812,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22">
         <v>4041021</v>
       </c>
       <c r="B22" t="s">
@@ -827,7 +826,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23">
         <v>4041022</v>
       </c>
       <c r="B23" t="s">
@@ -841,7 +840,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24">
         <v>4041023</v>
       </c>
       <c r="B24" t="s">
@@ -855,7 +854,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25">
         <v>4041024</v>
       </c>
       <c r="B25" t="s">
@@ -869,7 +868,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26">
         <v>4041025</v>
       </c>
       <c r="B26" t="s">
@@ -883,7 +882,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27">
         <v>4041026</v>
       </c>
       <c r="B27" t="s">

--- a/temp_doc/DATA KELAS.xlsx
+++ b/temp_doc/DATA KELAS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/webth/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7053C729-45FF-4C48-8C03-6B974B9261A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8876DFC5-D9A2-2B49-BD18-1D14D398F89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -140,6 +140,168 @@
   </si>
   <si>
     <t>XI DKV</t>
+  </si>
+  <si>
+    <t>XII DKV</t>
+  </si>
+  <si>
+    <t>1001404</t>
+  </si>
+  <si>
+    <t>1002404</t>
+  </si>
+  <si>
+    <t>1003404</t>
+  </si>
+  <si>
+    <t>1004404</t>
+  </si>
+  <si>
+    <t>1005404</t>
+  </si>
+  <si>
+    <t>1006404</t>
+  </si>
+  <si>
+    <t>1007404</t>
+  </si>
+  <si>
+    <t>1008404</t>
+  </si>
+  <si>
+    <t>1009404</t>
+  </si>
+  <si>
+    <t>1010404</t>
+  </si>
+  <si>
+    <t>1011404</t>
+  </si>
+  <si>
+    <t>1012404</t>
+  </si>
+  <si>
+    <t>1013404</t>
+  </si>
+  <si>
+    <t>1014404</t>
+  </si>
+  <si>
+    <t>1015404</t>
+  </si>
+  <si>
+    <t>1016404</t>
+  </si>
+  <si>
+    <t>1017404</t>
+  </si>
+  <si>
+    <t>1018404</t>
+  </si>
+  <si>
+    <t>1019404</t>
+  </si>
+  <si>
+    <t>1020404</t>
+  </si>
+  <si>
+    <t>1021404</t>
+  </si>
+  <si>
+    <t>1022404</t>
+  </si>
+  <si>
+    <t>1023404</t>
+  </si>
+  <si>
+    <t>1024404</t>
+  </si>
+  <si>
+    <t>1025404</t>
+  </si>
+  <si>
+    <t>1026404</t>
+  </si>
+  <si>
+    <t>1027505</t>
+  </si>
+  <si>
+    <t>1028505</t>
+  </si>
+  <si>
+    <t>1029505</t>
+  </si>
+  <si>
+    <t>1030505</t>
+  </si>
+  <si>
+    <t>1031505</t>
+  </si>
+  <si>
+    <t>1032505</t>
+  </si>
+  <si>
+    <t>1033505</t>
+  </si>
+  <si>
+    <t>1034505</t>
+  </si>
+  <si>
+    <t>1035505</t>
+  </si>
+  <si>
+    <t>1036505</t>
+  </si>
+  <si>
+    <t>1037505</t>
+  </si>
+  <si>
+    <t>1038505</t>
+  </si>
+  <si>
+    <t>1039505</t>
+  </si>
+  <si>
+    <t>1040505</t>
+  </si>
+  <si>
+    <t>1041505</t>
+  </si>
+  <si>
+    <t>1042505</t>
+  </si>
+  <si>
+    <t>1043505</t>
+  </si>
+  <si>
+    <t>1044505</t>
+  </si>
+  <si>
+    <t>1045505</t>
+  </si>
+  <si>
+    <t>1046505</t>
+  </si>
+  <si>
+    <t>1047505</t>
+  </si>
+  <si>
+    <t>1048505</t>
+  </si>
+  <si>
+    <t>1049505</t>
+  </si>
+  <si>
+    <t>1050505</t>
+  </si>
+  <si>
+    <t>1051505</t>
+  </si>
+  <si>
+    <t>1052505</t>
+  </si>
+  <si>
+    <t>1053505</t>
   </si>
 </sst>
 </file>
@@ -210,9 +372,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -250,7 +412,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -356,7 +518,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -498,7 +660,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664577AF-41FC-0C49-BD7B-86162BAED619}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,7 +679,7 @@
     <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,9 +693,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>4041001</v>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -544,10 +706,17 @@
       <c r="D2">
         <v>404</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>4041002</v>
+      <c r="E2">
+        <v>1001</v>
+      </c>
+      <c r="F2" t="str">
+        <f>_xlfn.CONCAT(E2,D2)</f>
+        <v>1001404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -558,10 +727,17 @@
       <c r="D3">
         <v>404</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4041003</v>
+      <c r="E3">
+        <v>1002</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F54" si="0">_xlfn.CONCAT(E3,D3)</f>
+        <v>1002404</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -572,10 +748,17 @@
       <c r="D4">
         <v>404</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4041004</v>
+      <c r="E4">
+        <v>1003</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>1003404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -586,10 +769,17 @@
       <c r="D5">
         <v>404</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4041005</v>
+      <c r="E5">
+        <v>1004</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>1004404</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -600,10 +790,17 @@
       <c r="D6">
         <v>404</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4041006</v>
+      <c r="E6">
+        <v>1005</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>1005404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>41</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -614,10 +811,17 @@
       <c r="D7">
         <v>404</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>4041007</v>
+      <c r="E7">
+        <v>1006</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>1006404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>42</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -628,10 +832,17 @@
       <c r="D8">
         <v>404</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>4041008</v>
+      <c r="E8">
+        <v>1007</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>1007404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>43</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -642,10 +853,17 @@
       <c r="D9">
         <v>404</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>4041009</v>
+      <c r="E9">
+        <v>1008</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>1008404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>44</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -656,10 +874,17 @@
       <c r="D10">
         <v>404</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>4041010</v>
+      <c r="E10">
+        <v>1009</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>1009404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
@@ -670,10 +895,17 @@
       <c r="D11">
         <v>404</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>4041011</v>
+      <c r="E11">
+        <v>1010</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>1010404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -684,10 +916,17 @@
       <c r="D12">
         <v>404</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>4041012</v>
+      <c r="E12">
+        <v>1011</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>1011404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -698,10 +937,17 @@
       <c r="D13">
         <v>404</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>4041013</v>
+      <c r="E13">
+        <v>1012</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>1012404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>48</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -712,10 +958,17 @@
       <c r="D14">
         <v>404</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>4041014</v>
+      <c r="E14">
+        <v>1013</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>1013404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>49</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -726,10 +979,17 @@
       <c r="D15">
         <v>404</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>4041015</v>
+      <c r="E15">
+        <v>1014</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>1014404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>50</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
@@ -740,10 +1000,17 @@
       <c r="D16">
         <v>404</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>4041016</v>
+      <c r="E16">
+        <v>1015</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>1015404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>51</v>
       </c>
       <c r="B17" t="s">
         <v>23</v>
@@ -754,10 +1021,17 @@
       <c r="D17">
         <v>404</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>4041017</v>
+      <c r="E17">
+        <v>1016</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>1016404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>23</v>
@@ -768,10 +1042,17 @@
       <c r="D18">
         <v>404</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>4041018</v>
+      <c r="E18">
+        <v>1017</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>1017404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -782,10 +1063,17 @@
       <c r="D19">
         <v>404</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>4041019</v>
+      <c r="E19">
+        <v>1018</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>1018404</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>54</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -796,10 +1084,17 @@
       <c r="D20">
         <v>404</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>4041020</v>
+      <c r="E20">
+        <v>1019</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>1019404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>55</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
@@ -810,10 +1105,17 @@
       <c r="D21">
         <v>404</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>4041021</v>
+      <c r="E21">
+        <v>1020</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>1020404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>56</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -824,10 +1126,17 @@
       <c r="D22">
         <v>404</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>4041022</v>
+      <c r="E22">
+        <v>1021</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>1021404</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -838,10 +1147,17 @@
       <c r="D23">
         <v>404</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>4041023</v>
+      <c r="E23">
+        <v>1022</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>1022404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>58</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -852,10 +1168,17 @@
       <c r="D24">
         <v>404</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>4041024</v>
+      <c r="E24">
+        <v>1023</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>1023404</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>59</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -866,10 +1189,17 @@
       <c r="D25">
         <v>404</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>4041025</v>
+      <c r="E25">
+        <v>1024</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>1024404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>60</v>
       </c>
       <c r="B26" t="s">
         <v>23</v>
@@ -880,10 +1210,17 @@
       <c r="D26">
         <v>404</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>4041026</v>
+      <c r="E26">
+        <v>1025</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>1025404</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>61</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -893,6 +1230,580 @@
       </c>
       <c r="D27">
         <v>404</v>
+      </c>
+      <c r="E27">
+        <v>1026</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>1026404</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>505</v>
+      </c>
+      <c r="E28">
+        <v>1027</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>1027505</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>505</v>
+      </c>
+      <c r="E29">
+        <v>1028</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>1028505</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30">
+        <v>505</v>
+      </c>
+      <c r="E30">
+        <v>1029</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>1029505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>505</v>
+      </c>
+      <c r="E31">
+        <v>1030</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>1030505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32">
+        <v>505</v>
+      </c>
+      <c r="E32">
+        <v>1031</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>1031505</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33">
+        <v>505</v>
+      </c>
+      <c r="E33">
+        <v>1032</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>1032505</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>505</v>
+      </c>
+      <c r="E34">
+        <v>1033</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>1033505</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>505</v>
+      </c>
+      <c r="E35">
+        <v>1034</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>1034505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>505</v>
+      </c>
+      <c r="E36">
+        <v>1035</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>1035505</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>505</v>
+      </c>
+      <c r="E37">
+        <v>1036</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>1036505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>505</v>
+      </c>
+      <c r="E38">
+        <v>1037</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>1037505</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>505</v>
+      </c>
+      <c r="E39">
+        <v>1038</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>1038505</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40">
+        <v>505</v>
+      </c>
+      <c r="E40">
+        <v>1039</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>1039505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>505</v>
+      </c>
+      <c r="E41">
+        <v>1040</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>1040505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D42">
+        <v>505</v>
+      </c>
+      <c r="E42">
+        <v>1041</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>1041505</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D43">
+        <v>505</v>
+      </c>
+      <c r="E43">
+        <v>1042</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>1042505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44">
+        <v>505</v>
+      </c>
+      <c r="E44">
+        <v>1043</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>1043505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45">
+        <v>505</v>
+      </c>
+      <c r="E45">
+        <v>1044</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>1044505</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46">
+        <v>505</v>
+      </c>
+      <c r="E46">
+        <v>1045</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>1045505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>505</v>
+      </c>
+      <c r="E47">
+        <v>1046</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>1046505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48">
+        <v>505</v>
+      </c>
+      <c r="E48">
+        <v>1047</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>1047505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49">
+        <v>505</v>
+      </c>
+      <c r="E49">
+        <v>1048</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>1048505</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D50">
+        <v>505</v>
+      </c>
+      <c r="E50">
+        <v>1049</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>1049505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>505</v>
+      </c>
+      <c r="E51">
+        <v>1050</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>1050505</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52">
+        <v>505</v>
+      </c>
+      <c r="E52">
+        <v>1051</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>1051505</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53">
+        <v>505</v>
+      </c>
+      <c r="E53">
+        <v>1052</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>1052505</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54">
+        <v>505</v>
+      </c>
+      <c r="E54">
+        <v>1053</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>1053505</v>
       </c>
     </row>
   </sheetData>
